--- a/medicine/Enfance/Colin_Thibert/Colin_Thibert.xlsx
+++ b/medicine/Enfance/Colin_Thibert/Colin_Thibert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Colin Thibert, ou Pierre Colin-Thibert[1], de son vrai nom Léon Noël[2], est un scénariste, auteur de roman policier et auteur pour la jeunesse français né le 29 janvier 1951 à Neuchâtel. Il a signé des pièces radiophoniques, une pièce de théâtre et est un ancien dessinateur de presse.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colin Thibert, ou Pierre Colin-Thibert, de son vrai nom Léon Noël, est un scénariste, auteur de roman policier et auteur pour la jeunesse français né le 29 janvier 1951 à Neuchâtel. Il a signé des pièces radiophoniques, une pièce de théâtre et est un ancien dessinateur de presse.
 </t>
         </is>
       </c>
@@ -511,19 +523,21 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né en 1951 à Neuchâtel en Suisse d'un père traducteur et d'une mère bibliothécaire, Pierre Colin-Thibert fait ses études secondaires au lycée Pasteur de Neuilly-sur-Seine (études classiques, latin-grec).
 Après le baccalauréat, il commence une école d’architecture intérieure et de design. Il découvre la gravure en taille-douce (l'eau-forte, le burin, la pointe sèche). Il travaille dans divers ateliers en Suisse et aux Pays-Bas et imprime les œuvres d'artistes tels qu'Albert Flocon, Pierre Tal-Coat, Orlando Pelayo, Hans Erni, André Thomkins…
-Il donne ensuite des cours de peinture, travaille sur des chantiers, devient graveur en bijouterie…[3]
+Il donne ensuite des cours de peinture, travaille sur des chantiers, devient graveur en bijouterie…
 Il remonte à Paris, en 1979, et se lance dans le dessin de presse et l'illustration, avec pour modèle André François. Il travaille pour une bonne vingtaine de magazines : informatiques, sportifs, syndicaux (Ça m'intéresse, Herald Tribune, Phosphore, Syndicalisme Hebdo, Tonus, Alpinisme et Randonnée), et pour des ouvrages scolaires ou techniques. Il signe en 1982 une bande dessinée, Le Goût de l'exploit (éd. Sipe).
-Parallèlement il commence à écrire des pièces pour la radio (Les Mille et un jours sur France Inter, de 1983 à 1986) et fait ses premiers pas et ses premiers sketches à la télévision grâce à Jean-Michel Ribes qui réalise alors l'émission Merci Bernard. Il rencontre Roland Topor, Gébé, Gourio…[4]
+Parallèlement il commence à écrire des pièces pour la radio (Les Mille et un jours sur France Inter, de 1983 à 1986) et fait ses premiers pas et ses premiers sketches à la télévision grâce à Jean-Michel Ribes qui réalise alors l'émission Merci Bernard. Il rencontre Roland Topor, Gébé, Gourio…
 Il abandonne progressivement le dessin de presse pour travailler de plus en plus à la télévision… (séries de dessins animés, épisodes de sitcom). Il est l'un des piliers de Maguy sur Antenne 2. Il fait la connaissance de Jean-Claude Islert vers 1986. Ils décident d'unir leurs forces pour écrire des téléfilms. Ils en ont signé une trentaine ensemble.
 En 1998, il signe pour le cinéma avec Jean-Claude Islert le scénario d'Une journée de merde, film réalisé par Miguel Courtois avec Richard Berry.
-Il entre à la Série noire en 2001 avec Noël au balcon. Il enchaîne avec Royal Cambouis en 2002 qui obtient Prix SNCF du polar du meilleur roman policier français[5], Nébuleuse.org en 2002, Barnum TV (2003) et Cahin-Cahos (2005).
+Il entre à la Série noire en 2001 avec Noël au balcon. Il enchaîne avec Royal Cambouis en 2002 qui obtient Prix SNCF du polar du meilleur roman policier français, Nébuleuse.org en 2002, Barnum TV (2003) et Cahin-Cahos (2005).
 Son roman Vitrage à la corde (2007) a été adapté à la télévision en 2008 pour la série Suite noire de Laurent Bouhnik avec Manuel Blanc, Jacky Berroyer et Philippe Duquesne.
 Jean-Bernard Pouy le présente ainsi en avant-propos de son roman Vitrage à la corde : « C’est avant tout l’envie de raconter des histoires qui est à la base de ses divers romans au ton irrévérencieux, plus "noirs" que "polars". Ses récits, noirs, prémonitoires et globalement pessimistes, opposent en effet des naïfs, des petits ou des manipulés au cynisme de tous les pouvoirs. Parfait constructeur d'intrigues, il noie cette froideur narrative dans une distance, un humour, voire une loufoquerie qui font souvent penser à Donald Westlake ».
-Explorant de nouvelles pistes narratives[6], il signe en 2010 le scénario d'un album de bandes dessinées chez Sarbacane : Des chiens et des loups. Sa pièce de théâtre Le Matelas est jouée au Palais des Glaces. En 2011, chez Thierry Magnier, il entame une série de romans d'heroic fantasy à destination de la jeunesse : Samien.
+Explorant de nouvelles pistes narratives, il signe en 2010 le scénario d'un album de bandes dessinées chez Sarbacane : Des chiens et des loups. Sa pièce de théâtre Le Matelas est jouée au Palais des Glaces. En 2011, chez Thierry Magnier, il entame une série de romans d'heroic fantasy à destination de la jeunesse : Samien.
 En 2019, il quitte le polar pour s'illustrer dans la littérature chez Héloïse d’Ormesson avec Torrentius, roman historique récompensé par le Prix Roland-de-Jouvenel de l'Académie Française, qui sera suivi de Mon frère, ce zéro et La Supériorité du kangourou.
 </t>
         </is>
@@ -555,8 +569,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Noël au balcon
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Noël au balcon
 Gallimard, 2001, 255 p. (Série noire ; no 2632).  (ISBN 2-07-049979-0)
 Éd. du Cercle Polar, 2002, 251 p. (Roman noir).  (ISBN 2-744-15496-2)
 Gallimard, 2004, 319 p. (Folio policier ; no 325).  (ISBN 2-070-31333-6)
@@ -584,14 +603,82 @@
 Héloïse d'Ormesson, février 2021, 122 p.  (ISBN 978-2-35087-756-3). NB : bandeau-jaquette avec la mention : « Qui trompe qui ? »
 Pocket, avril 2022.  (ISBN 978-2-266-32223-2)
 La Supériorité du kangourou
-Héloïse d'Ormesson, avril 2022, 256 p.  (ISBN 978-2-35087-801-0)
-Recueils de nouvelles
-Tirez sur l'ambulance. Paris : Thierry Magnier, janvier 2008, 176 p. (Nouvelles).  (ISBN 978-2-844-20610-7)
+Héloïse d'Ormesson, avril 2022, 256 p.  (ISBN 978-2-35087-801-0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Colin_Thibert</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colin_Thibert</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Tirez sur l'ambulance. Paris : Thierry Magnier, janvier 2008, 176 p. (Nouvelles).  (ISBN 978-2-844-20610-7)
 Le Bâtard de l'espace. Paris : Thierry Magnier, janvier 2009, 176 p. (Nouvelles).   (ISBN 978-2-844-20717-3)
-Chat qui lit jamais ne s'ennuie. Paris : Thierry Magnier, avril 2014, 160 p.  (ISBN 978-2-364-74455-4)
-Nouvelles
-« Le Déjeuner sur l’herbe », in Frédéric Prilleux (dir.). Mes chers voisins : recueil de nouvelles du sixième concours La Noiraude-La Fureur du Noir. Rennes : Terre de Brume, 2005, p. 113-134. (Granit noir ; no 39).  (ISBN 2-843-62286-7)
-« Les Cailloux du Petit Poucet », in Le Noir dans le Blanc : saison 2005 : nouvelles noires. Gémenos : Autres Temps, avril 2005, p. 141-[157]. Ill. de Laura Mergoni.  (ISBN 2-84521-218-6)
+Chat qui lit jamais ne s'ennuie. Paris : Thierry Magnier, avril 2014, 160 p.  (ISBN 978-2-364-74455-4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Colin_Thibert</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colin_Thibert</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>« Le Déjeuner sur l’herbe », in Frédéric Prilleux (dir.). Mes chers voisins : recueil de nouvelles du sixième concours La Noiraude-La Fureur du Noir. Rennes : Terre de Brume, 2005, p. 113-134. (Granit noir ; no 39).  (ISBN 2-843-62286-7)
+« Les Cailloux du Petit Poucet », in Le Noir dans le Blanc : saison 2005 : nouvelles noires. Gémenos : Autres Temps, avril 2005, p. 141-. Ill. de Laura Mergoni.  (ISBN 2-84521-218-6)
 « Dol à Mérindol », in Le Noir dans la truffe : saison 2006, anthologie. Gémenos : Éd. Autres Temps, mai 2006, p. 125-139. (coll. "Nouvelles noires").   (ISBN 2-845-21249-6)
 « Cannibale », Au bord du noir : revue consacrée au roman noir, automne 2005, no 7. Grenoble : Projet noir, 2005, p. 3-13.
 « Un miracle », in Jean-Bernard Pouy (dir.). Bloody Birthday : nouvelles. Paris : la Branche, 2008, p. 181-188.  (ISBN 978-2-353-06024-5). Ill. Benoît Sokal.
@@ -603,24 +690,126 @@
 « Lorsque le lion paraît », in Poilus : 10 récits d'animaux pendant la Grande Guerre, sous la dir. de Charline Vanderpoorte. Paris : Thierry Magnier, septembre 2018, p. 127-138.   (ISBN 979-10-352-0189-0)
 « Priape et la brune des Alpes », in De l’autre côté du mur : 11 histoires de murs et de frontières. Paris : Thierry Magnier, 09/2019, p. 127-140.
 « Déjà », in Des mots par la fenêtre : les écrivains se mobilisent pour les hôpitaux, collectif au profit de la Fondation Hôpitaux de Paris-Hôpitaux de France. Pocket n° 18118, 07/2020, p. 309-312.
-« Les Duettistes », in Rêves américains : 13 textes sur les États-Unis, collectif. Paris : Thierry Magnier, 09/2020, p. 149-162.  (ISBN 979-10-352-0376-4)
-Bandes dessinées
-Le Goût de l'exploit / scénario et dessins Colin-Thibert. Paris : SIPE, 1982, 80 p. (Alpinisme et Randonnée présente)
+« Les Duettistes », in Rêves américains : 13 textes sur les États-Unis, collectif. Paris : Thierry Magnier, 09/2020, p. 149-162.  (ISBN 979-10-352-0376-4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Colin_Thibert</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colin_Thibert</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Bandes dessinées</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le Goût de l'exploit / scénario et dessins Colin-Thibert. Paris : SIPE, 1982, 80 p. (Alpinisme et Randonnée présente)
 Alizarine in Vampyres : Sable noir (tome 1) / scénario et adaptation Denis-Pierre Filippi d'après la nouvelle Alizarine (La Nuit éternelle, sic) de Colin Thibert ; dessin Steve Lieber ; couleurs Sébastien Gérard. Marcinelle : Dupuis, octobre 2009, p. 60-86.  (ISBN 978-2-8001-4098-8)
 Des chiens et des loups / scénario Colin Thibert ; dessin Stéphane Soularue. Paris : Sarbacane, oct. 2010, 112 p.   (ISBN 978-2-848-65399-0)
 La Loge écarlate / scénario Colin Thibert ; dessin Stéphane Soularue. Paris : Sarbacane, oct. 2012, 112 p.   (ISBN 978-2-848-65557-4)
 Madeleine : une femme libre / scénario Rudy Ortiz et Pierre Colin-Thibert ; dessin Soren Mosda. Paris : Sarbacane, oct. 2014, 165 p.  (ISBN 978-2-84865-739-4)
 Compadres / scénario Pierre Colin-Thibert ; dessin Frédéric Pontarolo. Paris : Sarbacane, oct. 2016, 96 p.  (ISBN 978-2-84865-925-1)
-Le Bus 666 / scénario Sylvie Nordheim d'après le roman de Colin Thibert ; dessin Édith Chambon. Paris : Thierry Magnier, nov. 2020, 48 p.  (ISBN 979-10-352-0377-1)
-Livre humoristique
-Merci Bernard : la série culte de Jean-Michel Ribes / collectif.
+Le Bus 666 / scénario Sylvie Nordheim d'après le roman de Colin Thibert ; dessin Édith Chambon. Paris : Thierry Magnier, nov. 2020, 48 p.  (ISBN 979-10-352-0377-1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Colin_Thibert</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colin_Thibert</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Livre humoristique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Merci Bernard : la série culte de Jean-Michel Ribes / collectif.
 Paris : Balland, 1984, 250 p.  (ISBN 2-7158-0497-0)
-Montréal : Leméac ; Arles : Actes Sud, coll. "Babel" no 488, mai 2001, 247 p.  (ISBN 2-7609-2200-6) (Leméac).  (ISBN 2-7427-3334-5) (Actes Sud)
-Livres pour la jeunesse
-Série « Samien »
+Montréal : Leméac ; Arles : Actes Sud, coll. "Babel" no 488, mai 2001, 247 p.  (ISBN 2-7609-2200-6) (Leméac).  (ISBN 2-7427-3334-5) (Actes Sud)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Colin_Thibert</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colin_Thibert</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Livres pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Série « Samien »
 Samien, le voyage vers l'Outremonde / Colin Thibert. Paris : T. Magnier, 2011, 338 p. (Collection animée par Soazig Le Bail).  (ISBN 978-2-844-20888-0)
 Samien, la conquête de la planète froide / Colin Thibert. Paris : T. Magnier, 2012, 352 p. (Collection animée par Soazig Le Bail).  (ISBN 978-2-36474-069-3)
- Le chien du bout du monde : Thelma templeton mène lenquête[7], La Joie de lire, 2023
+ Le chien du bout du monde : Thelma templeton mène lenquête, La Joie de lire, 2023
 Romans illustrés par l'auteur
 Tchao Grumeau ! / texte de Didier Cohen ; ill. Pierre Colin-Thibert. Paris : Syros Jeunesse, 1987, 27 p. (Souris noire ; no 13).  (ISBN 2-012-09360-4)
 Rock machine / texte de Marc Villard ; ill. Pierre Colin-Thibert. Paris : Syros jeunesse, 1988, 64 p. (Souris noire Plus ; no 4).   (ISBN 2-867-38283-1)
@@ -636,9 +825,43 @@
 Novélisations par autrui
 Les Insignes sacrés / d'après un scénario de Nina Wolmark ; adaptation et dialogues de Nina Wolmark et Colin Thibert ; conception graphique Patrick Regout. Tournai : Casterman, coll. "Les Mondes engloutis. Récit photos", mars 1986, 22 p.  (ISBN 2-203-35107-1)
 Rebecca, pirate du lac / Nina Wolmark ; raconté par Évelyne Lallemand. Paris : Hachette, coll. "Bibliothèque rose. Les Mondes engloutis", septembre 1986, 128 p.  (ISBN 2-01-011531-7). Novélisation des épisodes 8 (Démosthène, dit D.D.) et 18 (Rebecca, pirate du lac).
-Une seconde chance [série L’Instit] / novélisation du scénario de Jean-Claude Islert, Pierre Colin-Thibert et Didier Cohen par Gudule. Paris : Hachette jeunesse, 1995, 188 p. (Bibliothèque Verte ; no 653).   (ISBN 2-012-09360-4). Rééd. : France-Loisirs, 1996, 240 p. (Ma première bibliothèque).   (ISBN 2-744-10325-X)
-Articles
-« Iconographie sémanticosybilline monofigurative », Teckel, hiver 2005, no 3.  (ISBN 2-915438-11-0)
+Une seconde chance [série L’Instit] / novélisation du scénario de Jean-Claude Islert, Pierre Colin-Thibert et Didier Cohen par Gudule. Paris : Hachette jeunesse, 1995, 188 p. (Bibliothèque Verte ; no 653).   (ISBN 2-012-09360-4). Rééd. : France-Loisirs, 1996, 240 p. (Ma première bibliothèque).   (ISBN 2-744-10325-X)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Colin_Thibert</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colin_Thibert</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Articles</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>« Iconographie sémanticosybilline monofigurative », Teckel, hiver 2005, no 3.  (ISBN 2-915438-11-0)
 « Adieu poulet », Shanghai Express, mars 2006, no 1, p. 82.
 « Adieu poulet », Shanghai express, avril 2006, no 2, p. 82.
 « Adieu poulet », Shanghai express, mai 2006, no 3, p. 82.
@@ -648,34 +871,39 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Colin_Thibert</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Colin_Thibert</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Colin_Thibert</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colin_Thibert</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Radiothéâtrographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Dramatiques
-Bizness is bizness (Série Les Mille et un jours, 1983). Producteur artistique : Pierre Billard. Radiodiffusion : 12 décembre 1983, 8 octobre 1985 (France Inter).
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Dramatiques</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Bizness is bizness (Série Les Mille et un jours, 1983). Producteur artistique : Pierre Billard. Radiodiffusion : 12 décembre 1983, 8 octobre 1985 (France Inter).
 Tableau de famille (Série Les Mille et un jours, 1984). Producteur artistique : Pierre Billard. Radiodiffusion : 10 janvier 1984 (France Inter).
 Le Verger des Hesperides (Série Les Mille et un jours, 1984). Producteur artistique : Pierre Billard. Radiodiffusion : 23 janvier 1984 (France Inter).
 À chacun ses rêves (sous le pseudonyme de Léon Noël). (Série Les Mille et un jours, 1984). Producteur artistique : Pierre Billard. Radiodiffusion : 26 mars 1984 (France Inter).
@@ -695,77 +923,152 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Colin_Thibert</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Colin_Thibert</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Colin_Thibert</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colin_Thibert</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Une journée de merde. Réalisation : Miguel Courtois. Scénario, adaptation et dialogues : Jean-Claude Islert et Pierre Colin-Thibert. Sociétés de production : Fit production et France 3 Cinéma. Producteur délégué : Jean-Pierre Ramsay-Levi. Directeur de production : Catherine Lapoujade. Distributeur d'origine : SND - Société Nouvelle de Distribution (Paris). Durée : 100 min. Sortie : 3 mars 1999. Interprètes : Richard Berry, Anne Brochet, Christian Charmetant, Gilbert Melki, François Perrot, Guilaine Londez…</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Colin_Thibert</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Colin_Thibert</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Colin_Thibert</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colin_Thibert</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Téléfilmographie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Dessins animés
-"Zoofolies" série animée pour les enfants.
-Les Mondes engloutis (France/Corée du Sud, 1985). Productions : Bon Bon, Dr. Movie, France 2, France 3, Saban International. Distributeurs : Morning Glory (Corée), Nickelodeon Network (États-Unis). Réalisation : Michel Gauthier. Producteur : Gilbert Wolmark et Michel Gauthier. Scénario : Yoon Suk Hwa. Musique : Vladimir Cosma, Nina Wolmark (paroles) et Les Mini-stars (interprètes). Interprètes : Victoria Abril (Arkana), Sophie Artur (Rebecca), Joël Barbouth (Arkadian Wiseman), Jackie Berger (Bob), Philippe Brigaud (Spartakus). Première diffusion : 11 septembre 1985 (Antenne 2). Nombre d'épisodes : 52 épisodes de 26 minutes[8].
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Dessins animés</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>"Zoofolies" série animée pour les enfants.
+Les Mondes engloutis (France/Corée du Sud, 1985). Productions : Bon Bon, Dr. Movie, France 2, France 3, Saban International. Distributeurs : Morning Glory (Corée), Nickelodeon Network (États-Unis). Réalisation : Michel Gauthier. Producteur : Gilbert Wolmark et Michel Gauthier. Scénario : Yoon Suk Hwa. Musique : Vladimir Cosma, Nina Wolmark (paroles) et Les Mini-stars (interprètes). Interprètes : Victoria Abril (Arkana), Sophie Artur (Rebecca), Joël Barbouth (Arkadian Wiseman), Jackie Berger (Bob), Philippe Brigaud (Spartakus). Première diffusion : 11 septembre 1985 (Antenne 2). Nombre d'épisodes : 52 épisodes de 26 minutes.
 Monsieur Roger
 SOS Polluards / Stops The Smoggies ! (France-Canada, 1987). Karina Films CINAR Animation, Initial Groupe. Première diffusion : septembre 1990 (Antenne 2). Nombre d'épisodes : 52 épisodes de 26 minutes.
 Mona le vampire / Mona the Vampire (1998). Réalisation : Jean Caillon, Louis Piche. Scénario : Pierre Colin-Thibert, A. Kempton, Jean Malozzi. Production : Alphanim, Cinar. Télédiffusion : France 3. Durée : 26 épisodes de 26 min ou 52 épisodes de 13 min.
 Ripley les aventuriers de l’étrange / Ripley’s, believe it or not (1998). Direction d'écriture française sur la série de dessin animé canadienne. Réalisation : F. Brisson, Arnaud Gransac. Scénario : Pierre Coln-Thibert, M. O’Mahoney et B. Robb. Production : Alpharnim – Cinar. Durée : 13 épisodes de 23 min.
 Bêtes à craquer (1999). Adaptation française de la série canadienne "Bêtes à craquer" ("Animal Crackers"). Réalisation : Louis Piche. Scénario : Roger Bollen, Joseph Mallozi et Pierre Colin-Thibert. Télédiffusion : La 5e.
 Allo la terre ? Ici les Martins / Space Out (2000). Réalisation : Marc Perret. Scénario : Jean-Claude Islert, Jan Van Rijsselberge et Pierre Colin-Thibert. Producteur : Alphanim. Télédiffusions : Canal +, France 3. Durée : 26 épisodes de 26 min.
-Les Zinzins de l'espace (2005, saison 2). Liste des épisodes
-Séries TV
-Maguy (série en 333 épisodes, 1988). Scénario : Pierre Colin-Thibert, Jean-Guy Gingembre. Musique : Alain Wisniak /paroles générique Jean-Guy Gingembre et Stéphane Barbier. Production : A2 – Télé Images. Interprètes : Rosy Varte (Maguy), Jean-Marc Thibault (Georges, son mari), Sophie Arthur (Caroline, sa fille), Marthe Villalonga (Rose, la bonne), Henri Garcin (Pierre, l’ami de la famille). Durée : 333 x 26 min. Télédiffusion : 8 septembre 1985 sur A2.
-Tel père tel fils (série en 42 épisodes, 1988). Réalisation : Didier Albert, Jean-Claude Charnay, Bernard Dumont et Jacqueline Wieder. Scénario : Stéphane Barbier, Jean-Guy Gingembre et Pierre Colin-Thibert. Production : A2 – Télé Images. Interprètes : Jacques Balutin, Pierre Deny, Micheline Dax, Jacques Marin, Blandine Métayer, Diane Lafosse, Richard Taxy, Clémentine Amouroux, Bruno Balp, Robert Rollis, Jean-Pierre Rambal, Christine Hayder, Roger Muni, Bruno Le Millin, André Penvern, Sheila O’Connor, Marie-Christine Demarest. Durée : 42 x 20 min. Télédiffusion : 9 septembre 1988 sur A2. Série diffusée en alternance avec Loft story, L’Appât, L’Homme à tout faire, tous les jours de la semaine avant le journal de 20h jusqu’au 4 novembre puis programmée en continuité du 7 au 25 novembre 1988 et 9 janvier au 3 février 1989.
-Téléfilms - Épisodes de séries
-Besoin de personne (1991) Fictions jeunesse. Scénario : Jean-Claude Islert et Pierre Colin-Thibert. Durée : 13 épisodes de 13 min. Télédiffusion : France 2.
+Les Zinzins de l'espace (2005, saison 2). Liste des épisodes</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Colin_Thibert</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colin_Thibert</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Téléfilmographie</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Séries TV</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Maguy (série en 333 épisodes, 1988). Scénario : Pierre Colin-Thibert, Jean-Guy Gingembre. Musique : Alain Wisniak /paroles générique Jean-Guy Gingembre et Stéphane Barbier. Production : A2 – Télé Images. Interprètes : Rosy Varte (Maguy), Jean-Marc Thibault (Georges, son mari), Sophie Arthur (Caroline, sa fille), Marthe Villalonga (Rose, la bonne), Henri Garcin (Pierre, l’ami de la famille). Durée : 333 x 26 min. Télédiffusion : 8 septembre 1985 sur A2.
+Tel père tel fils (série en 42 épisodes, 1988). Réalisation : Didier Albert, Jean-Claude Charnay, Bernard Dumont et Jacqueline Wieder. Scénario : Stéphane Barbier, Jean-Guy Gingembre et Pierre Colin-Thibert. Production : A2 – Télé Images. Interprètes : Jacques Balutin, Pierre Deny, Micheline Dax, Jacques Marin, Blandine Métayer, Diane Lafosse, Richard Taxy, Clémentine Amouroux, Bruno Balp, Robert Rollis, Jean-Pierre Rambal, Christine Hayder, Roger Muni, Bruno Le Millin, André Penvern, Sheila O’Connor, Marie-Christine Demarest. Durée : 42 x 20 min. Télédiffusion : 9 septembre 1988 sur A2. Série diffusée en alternance avec Loft story, L’Appât, L’Homme à tout faire, tous les jours de la semaine avant le journal de 20h jusqu’au 4 novembre puis programmée en continuité du 7 au 25 novembre 1988 et 9 janvier au 3 février 1989.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Colin_Thibert</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colin_Thibert</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Téléfilmographie</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Téléfilms - Épisodes de séries</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Besoin de personne (1991) Fictions jeunesse. Scénario : Jean-Claude Islert et Pierre Colin-Thibert. Durée : 13 épisodes de 13 min. Télédiffusion : France 2.
 Ascension express [série L’Air du temps]. Réalisation : Nicolas Ribowski. Scénario : Philippe Le Guay, Jean-Claude Islert et Pierre Colin-Thibert d’après l’œuvre de Patrick Dewolf. Production : France3 – Hamster. Interprètes : Samuel Labarthe, Antoine Duléry, Maka Koto, Suzanna Hofman, Anne-Élise Bottau, Jean-Noël Broute, Gilles-Gaston Dreyfus, Étienne de Balasy, Eric Prat. Durée : 82 min. Télédiffusion : 20 octobre 1992 sur France 3.
 Deux morts sans ordonnance [série La Guerre des Privés]. Réalisation : Josée Dayan. Scénario : Jean-Gérard Imbar et Yves Ellena. Adaptation et dialogues : Jean-Claude Islert et Pierre Colin-Thibert. Musique : Didier Vasseur. Production : TF1 – Gaumont TV. Interprètes : Daniel Prévost, Robert Lamoureux, Julie Jezequel, Luc Thuillier, Virginie Pradal, Jacques Boudet, Frédéric Darie, Clotilde Debayser, Jean-Paul Muel, Patrick Raynal, Maïa Simon, Pauline Sales, Serge Merlin, Elisabeth Catroux, Bertrand Garnier. Durée : 90 min. Télédiffusion : 17 février 1994 sur TF1.
 Une seconde chance [série L’Instit]. Réalisation : Gérard Marx. Scénario : Jean-Claude Islert et Pierre Colin-Thibert. Adaptation : Jean-Claude Islert, Pierre Colin-Thibert et Didier Cohen. Musique : Bruno Coulais. Production : France 2 – Hamster – TSR. Interprètes : Gérard Klein (Victor Novak), Luc Thuillier (Gilles Jouanet), Laura Martel (Sandrine Loisel), Victor Garrivier (M. Raymond Loisel), Dora Doll (Mme Loisel), Gilda Albertoni (Anne Thibault), Sébastien Chamaillard (Frédérique), Philippe du Jamerand (Joubert). Durée : 85 min. Télédiffusion : 20 avril 1994 sur France 2.
@@ -776,31 +1079,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Colin_Thibert</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Colin_Thibert</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Colin_Thibert</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colin_Thibert</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>Romans
 2002 : Prix SNCF du polar du meilleur roman policier français, pour Royal Cambouis.
